--- a/translation.xlsx
+++ b/translation.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>en_us</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>单位转换器: 常用单位换算</t>
+  </si>
+  <si>
+    <t>insta_repost</t>
+  </si>
+  <si>
+    <t>InstaRepost: Repost &amp; Download</t>
   </si>
 </sst>
 </file>
@@ -1447,10 +1453,18 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s" s="3">
+        <v>11</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
